--- a/fermentation_insights/TRY_results/c_coeff_baselines_percentiles.xlsx
+++ b/fermentation_insights/TRY_results/c_coeff_baselines_percentiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\fermentation_insights\fermentation_insights\TRY_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCE34DE-A403-4F09-87C7-23B03A3C08D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5438653C-ACCC-40F9-B50C-EBDAF44D85C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,10 +59,10 @@
     <t>glucose</t>
   </si>
   <si>
+    <t>cornstover</t>
+  </si>
+  <si>
     <t>sugarcane</t>
-  </si>
-  <si>
-    <t>cornstover</t>
   </si>
   <si>
     <t>corn</t>
@@ -99,6 +99,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -108,18 +109,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -150,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -160,12 +155,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,21 +458,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
     <col min="4" max="6" width="8.7265625" style="3"/>
-    <col min="8" max="8" width="8.7265625" style="3"/>
+    <col min="8" max="8" width="8.7265625" style="4"/>
+    <col min="10" max="10" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,11 +489,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -514,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3">
-        <v>28.737615480710371</v>
+        <v>29.64304429812189</v>
       </c>
       <c r="E2" s="3">
         <v>21.394935998608162</v>
@@ -522,66 +512,42 @@
       <c r="F2" s="3">
         <v>34.57131871341101</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
+        <f>ABS(D2-D$2)/D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
         <v>27.284693043188788</v>
       </c>
-      <c r="I2">
-        <f>IF(E2&lt;D2,IF(F2&gt;D2,1,0),0)</f>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="4">
-        <f>1-D2/D$2</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <f t="shared" ref="K2:L2" si="0">1-E2/E$2</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7">
-        <v>33.034981460596512</v>
-      </c>
-      <c r="E3" s="7">
-        <v>25.172697744680789</v>
-      </c>
-      <c r="F3" s="7">
-        <v>38.452168801966472</v>
-      </c>
-      <c r="H3" s="7">
-        <v>31.09187799531464</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I25" si="1">IF(E3&lt;D3,IF(F3&gt;D3,1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="8">
-        <f t="shared" ref="J3:J5" si="2">1-D3/D$2</f>
-        <v>-0.1495380151763348</v>
-      </c>
-      <c r="K3" s="8">
-        <f t="shared" ref="K3:K5" si="3">1-E3/E$2</f>
-        <v>-0.17657270609822762</v>
-      </c>
-      <c r="L3" s="8">
-        <f t="shared" ref="L3:L5" si="4">1-F3/F$2</f>
-        <v>-0.11225635101532849</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D3" s="3">
+        <v>29.737115928062501</v>
+      </c>
+      <c r="E3" s="3">
+        <v>20.678323147228031</v>
+      </c>
+      <c r="F3" s="3">
+        <v>33.491533295858297</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H5" si="0">ABS(D3-D$2)/D$2</f>
+        <v>3.1734807327657433E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>26.237915974798259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -592,35 +558,23 @@
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>29.085946519708418</v>
+        <v>34.231294036526151</v>
       </c>
       <c r="E4" s="3">
-        <v>20.074273482579009</v>
+        <v>25.172697744680789</v>
       </c>
       <c r="F4" s="3">
-        <v>32.744082085714233</v>
-      </c>
-      <c r="H4" s="3">
-        <v>25.607290350958429</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="2"/>
-        <v>-1.2121083575352909E-2</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="3"/>
-        <v>6.1727808679356011E-2</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" si="4"/>
-        <v>5.285411999594769E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>38.452168801966472</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15478335127323484</v>
+      </c>
+      <c r="J4" s="3">
+        <v>31.09187799531464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -631,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>30.322587766947109</v>
+        <v>31.320109015682078</v>
       </c>
       <c r="E5" s="3">
         <v>22.22721900417385</v>
@@ -639,27 +593,15 @@
       <c r="F5" s="3">
         <v>35.096289286972137</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.6575320020907684E-2</v>
+      </c>
+      <c r="J5" s="3">
         <v>27.958277172124241</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="2"/>
-        <v>-5.5153228955291178E-2</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="3"/>
-        <v>-3.8900934577221102E-2</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="4"/>
-        <v>-1.5185147489253259E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -670,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3">
-        <v>27.657260417687169</v>
+        <v>28.144026248217891</v>
       </c>
       <c r="E6" s="3">
         <v>20.207910897706501</v>
@@ -678,66 +620,42 @@
       <c r="F6" s="3">
         <v>33.015698747182803</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
+        <f>ABS(D6-D$6)/D$6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
         <v>25.71532502917383</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <f>1-D6/D$6</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" ref="K6:L6" si="5">1-E6/E$6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
-        <v>33.254714168409024</v>
-      </c>
-      <c r="E7" s="7">
-        <v>24.709885346429491</v>
-      </c>
-      <c r="F7" s="7">
-        <v>37.754612486199143</v>
-      </c>
-      <c r="H7" s="7">
-        <v>30.73153341285354</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" ref="J7:J9" si="6">1-D7/D$6</f>
-        <v>-0.20238641377300737</v>
-      </c>
-      <c r="K7" s="8">
-        <f t="shared" ref="K7:K9" si="7">1-E7/E$6</f>
-        <v>-0.22278277410823022</v>
-      </c>
-      <c r="L7" s="8">
-        <f t="shared" ref="L7:L9" si="8">1-F7/F$6</f>
-        <v>-0.14353516414432099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D7" s="3">
+        <v>28.44341166456956</v>
+      </c>
+      <c r="E7" s="3">
+        <v>20.221341205914062</v>
+      </c>
+      <c r="F7" s="3">
+        <v>32.524886911128682</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" ref="H7:H9" si="1">ABS(D7-D$6)/D$6</f>
+        <v>1.0637618573519704E-2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>25.557366729301378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,35 +666,23 @@
         <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>28.793482438667208</v>
+        <v>32.242019290052973</v>
       </c>
       <c r="E8" s="3">
-        <v>20.221341205914062</v>
+        <v>25.500620575396841</v>
       </c>
       <c r="F8" s="3">
-        <v>32.524886911128682</v>
-      </c>
-      <c r="H8" s="3">
-        <v>25.557366729301378</v>
-      </c>
-      <c r="I8">
+        <v>38.36844373594645</v>
+      </c>
+      <c r="H8" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="6"/>
-        <v>-4.1082233157605508E-2</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="7"/>
-        <v>-6.6460646404986612E-4</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" si="8"/>
-        <v>1.4866013886681739E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.14560791713639662</v>
+      </c>
+      <c r="J8" s="3">
+        <v>30.96184090158015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -787,35 +693,23 @@
         <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>29.735050744682681</v>
+        <v>30.646150125576941</v>
       </c>
       <c r="E9" s="3">
-        <v>21.55257517854497</v>
+        <v>21.552575232544001</v>
       </c>
       <c r="F9" s="3">
-        <v>34.082651877632522</v>
-      </c>
-      <c r="H9" s="3">
-        <v>26.912357407047299</v>
-      </c>
-      <c r="I9">
+        <v>34.082651748055667</v>
+      </c>
+      <c r="H9" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="6"/>
-        <v>-7.512639703340751E-2</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="7"/>
-        <v>-6.6541479109108792E-2</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" si="8"/>
-        <v>-3.2316539432343916E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>8.8904261788680203E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>26.91235723644736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -826,7 +720,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>19.141474232261508</v>
+        <v>19.790274329911441</v>
       </c>
       <c r="E10" s="3">
         <v>17.93945519021781</v>
@@ -834,66 +728,42 @@
       <c r="F10" s="3">
         <v>20.98129588709353</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
+        <f>ABS(D10-D$10)/D$10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>19.41614673543727</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
-        <f>1-D10/D$10</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" ref="K10:L10" si="9">1-E10/E$10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="7">
-        <v>25.48894402843715</v>
-      </c>
-      <c r="E11" s="7">
-        <v>23.558312973543519</v>
-      </c>
-      <c r="F11" s="7">
-        <v>29.893867351619289</v>
-      </c>
-      <c r="H11" s="7">
-        <v>26.274270399712481</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
-        <f>1-D11/D$10</f>
-        <v>-0.33160819899009986</v>
-      </c>
-      <c r="K11" s="8">
-        <f t="shared" ref="K11:K13" si="10">1-E11/E$10</f>
-        <v>-0.31321228675827406</v>
-      </c>
-      <c r="L11" s="8">
-        <f t="shared" ref="L11:L13" si="11">1-F11/F$10</f>
-        <v>-0.42478651044658555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D11" s="3">
+        <v>20.704525703376511</v>
+      </c>
+      <c r="E11" s="3">
+        <v>19.45977549633804</v>
+      </c>
+      <c r="F11" s="3">
+        <v>22.97939818444598</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" ref="H11:H13" si="2">ABS(D11-D$10)/D$10</f>
+        <v>4.6197003549528957E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>21.179800504724611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -904,35 +774,23 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>21.456037884174709</v>
+        <v>24.022779808037878</v>
       </c>
       <c r="E12" s="3">
-        <v>19.45977549633804</v>
+        <v>23.558312973543519</v>
       </c>
       <c r="F12" s="3">
-        <v>22.97939818444598</v>
-      </c>
-      <c r="H12" s="3">
-        <v>21.179800504724611</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" ref="J12:J13" si="12">1-D12/D$10</f>
-        <v>-0.12091877688355779</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="10"/>
-        <v>-8.4747295277352919E-2</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="11"/>
-        <v>-9.5232549414717704E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>29.893867351619289</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.21386795390346555</v>
+      </c>
+      <c r="J12" s="3">
+        <v>26.274270399712481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -943,7 +801,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>21.46558166185681</v>
+        <v>20.33315095894163</v>
       </c>
       <c r="E13" s="3">
         <v>19.87494688870304</v>
@@ -951,27 +809,15 @@
       <c r="F13" s="3">
         <v>23.356377458897299</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
+        <v>2.7431485788434684E-2</v>
+      </c>
+      <c r="J13" s="3">
         <v>21.58749283130367</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="12"/>
-        <v>-0.1214173684531672</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="10"/>
-        <v>-0.10789021617226324</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" si="11"/>
-        <v>-0.11319994649447662</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -982,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="3">
-        <v>20.544404638508549</v>
+        <v>20.771423656600302</v>
       </c>
       <c r="E14" s="3">
         <v>18.53956290018321</v>
@@ -990,66 +836,42 @@
       <c r="F14" s="3">
         <v>21.876636832013372</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="4">
+        <f>ABS(D14-D$14)/D$14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>20.177871052714149</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="4">
-        <f>1-D14/D$14</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" ref="K14:L14" si="13">1-E14/E$14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="7">
-        <v>26.35098721705684</v>
-      </c>
-      <c r="E15" s="7">
-        <v>23.980298841975099</v>
-      </c>
-      <c r="F15" s="7">
-        <v>30.37036365218589</v>
-      </c>
-      <c r="H15" s="7">
-        <v>26.427724137472321</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" ref="J15:J17" si="14">1-D15/D$14</f>
-        <v>-0.28263571910302043</v>
-      </c>
-      <c r="K15" s="8">
-        <f t="shared" ref="K15:K17" si="15">1-E15/E$14</f>
-        <v>-0.29346624680877031</v>
-      </c>
-      <c r="L15" s="8">
-        <f t="shared" ref="L15:L17" si="16">1-F15/F$14</f>
-        <v>-0.38825560278731452</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D15" s="3">
+        <v>21.53090128530404</v>
+      </c>
+      <c r="E15" s="3">
+        <v>19.834032242168949</v>
+      </c>
+      <c r="F15" s="3">
+        <v>23.56642867948765</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" ref="H15:H17" si="3">ABS(D15-D$14)/D$14</f>
+        <v>3.6563580872436142E-2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>21.675201023789441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1060,35 +882,23 @@
         <v>9</v>
       </c>
       <c r="D16" s="3">
-        <v>22.243558800924301</v>
+        <v>25.228625518194679</v>
       </c>
       <c r="E16" s="3">
-        <v>19.834032242168949</v>
+        <v>23.980298841975099</v>
       </c>
       <c r="F16" s="3">
-        <v>23.56642867948765</v>
-      </c>
-      <c r="H16" s="3">
-        <v>21.675201023789441</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="14"/>
-        <v>-8.2706420181719364E-2</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="15"/>
-        <v>-6.9821998984288092E-2</v>
-      </c>
-      <c r="L16" s="4">
-        <f t="shared" si="16"/>
-        <v>-7.7241847567790067E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30.37036365218589</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="3"/>
+        <v>0.21458335910346052</v>
+      </c>
+      <c r="J16" s="3">
+        <v>26.427724137472321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1099,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="3">
-        <v>22.275493640398551</v>
+        <v>21.275863215026941</v>
       </c>
       <c r="E17" s="3">
         <v>20.282582244842409</v>
@@ -1107,27 +917,15 @@
       <c r="F17" s="3">
         <v>23.874944764162461</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
+        <f t="shared" si="3"/>
+        <v>2.4285266468307271E-2</v>
+      </c>
+      <c r="J17" s="3">
         <v>22.064622197676819</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="14"/>
-        <v>-8.4260850209562088E-2</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="15"/>
-        <v>-9.4016204915056356E-2</v>
-      </c>
-      <c r="L17" s="4">
-        <f t="shared" si="16"/>
-        <v>-9.1344384765068121E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1138,74 +936,50 @@
         <v>7</v>
       </c>
       <c r="D18" s="3">
-        <v>17.87656209596414</v>
+        <v>15.004357409063701</v>
       </c>
       <c r="E18" s="3">
-        <v>16.03455856891912</v>
+        <v>12.451883676003471</v>
       </c>
       <c r="F18" s="3">
-        <v>18.553399885212539</v>
-      </c>
-      <c r="H18" s="3">
-        <v>17.2912543914188</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="4">
-        <f>1-D18/D$18</f>
+        <v>15.27300349134728</v>
+      </c>
+      <c r="H18" s="4">
+        <f>ABS(D18-D$18)/D$18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="4">
-        <f t="shared" ref="K18:L18" si="17">1-E18/E$18</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="J18" s="3">
+        <v>13.909286213038531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="7">
-        <v>20.750332739426671</v>
-      </c>
-      <c r="E19" s="7">
-        <v>19.589588143363901</v>
-      </c>
-      <c r="F19" s="7">
-        <v>24.522837053122711</v>
-      </c>
-      <c r="H19" s="7">
-        <v>21.769002597056751</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" ref="J19:J21" si="18">1-D19/D$18</f>
-        <v>-0.16075633715452042</v>
-      </c>
-      <c r="K19" s="8">
-        <f t="shared" ref="K19:K21" si="19">1-E19/E$18</f>
-        <v>-0.22171047361015206</v>
-      </c>
-      <c r="L19" s="8">
-        <f t="shared" ref="L19:L21" si="20">1-F19/F$18</f>
-        <v>-0.32174357286763078</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D19" s="3">
+        <v>16.316324488739198</v>
+      </c>
+      <c r="E19" s="3">
+        <v>15.427334695911959</v>
+      </c>
+      <c r="F19" s="3">
+        <v>19.257388879738379</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" ref="H19:H21" si="4">ABS(D19-D$18)/D$18</f>
+        <v>8.7439071458200263E-2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>17.31456570359628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1216,35 +990,23 @@
         <v>9</v>
       </c>
       <c r="D20" s="3">
-        <v>17.801107051048589</v>
+        <v>19.038258857839459</v>
       </c>
       <c r="E20" s="3">
-        <v>16.50282027435756</v>
+        <v>16.8533512194049</v>
       </c>
       <c r="F20" s="3">
-        <v>19.096665042123409</v>
-      </c>
-      <c r="H20" s="3">
-        <v>17.492932472919069</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="18"/>
-        <v>4.2208923902983253E-3</v>
-      </c>
-      <c r="K20" s="4">
-        <f t="shared" si="19"/>
-        <v>-2.9203280116866015E-2</v>
-      </c>
-      <c r="L20" s="4">
-        <f t="shared" si="20"/>
-        <v>-2.9281164652946723E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <v>21.775064688231939</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="4"/>
+        <v>0.26884866434459859</v>
+      </c>
+      <c r="J20" s="3">
+        <v>19.10010011273349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1255,35 +1017,23 @@
         <v>10</v>
       </c>
       <c r="D21" s="3">
-        <v>17.927666570548588</v>
+        <v>15.665919231840549</v>
       </c>
       <c r="E21" s="3">
-        <v>30.569282018790691</v>
+        <v>15.34575227529116</v>
       </c>
       <c r="F21" s="3">
-        <v>38.934556458280078</v>
-      </c>
-      <c r="H21" s="3">
-        <v>34.507359809606967</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="18"/>
-        <v>-2.8587417597472076E-3</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="19"/>
-        <v>-0.90646233804310761</v>
-      </c>
-      <c r="L21" s="4">
-        <f t="shared" si="20"/>
-        <v>-1.0985133020989735</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+        <v>19.222922242831231</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="4"/>
+        <v>4.4091313259254798E-2</v>
+      </c>
+      <c r="J21" s="3">
+        <v>17.345444203206881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1294,74 +1044,50 @@
         <v>7</v>
       </c>
       <c r="D22" s="3">
-        <v>17.974454182865141</v>
+        <v>15.15374305032975</v>
       </c>
       <c r="E22" s="3">
-        <v>15.494750455827139</v>
+        <v>12.554451590543961</v>
       </c>
       <c r="F22" s="3">
-        <v>18.216706625630021</v>
-      </c>
-      <c r="H22" s="3">
-        <v>16.99064652053772</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="4">
-        <f>1-D22/D$22</f>
+        <v>15.34256881911244</v>
+      </c>
+      <c r="H22" s="4">
+        <f>ABS(D22-D$22)/D$22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="4">
-        <f t="shared" ref="K22:L22" si="21">1-E22/E$22</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="J22" s="3">
+        <v>13.99525290847208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="7">
-        <v>20.50927024398705</v>
-      </c>
-      <c r="E23" s="7">
-        <v>32.973292947495601</v>
-      </c>
-      <c r="F23" s="7">
-        <v>41.756464238402081</v>
-      </c>
-      <c r="H23" s="7">
-        <v>36.758247842853038</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" ref="J23:J25" si="22">1-D23/D$22</f>
-        <v>-0.14102325641344482</v>
-      </c>
-      <c r="K23" s="8">
-        <f t="shared" ref="K23:K25" si="23">1-E23/E$22</f>
-        <v>-1.1280299441734649</v>
-      </c>
-      <c r="L23" s="8">
-        <f t="shared" ref="L23:L25" si="24">1-F23/F$22</f>
-        <v>-1.2922070984912697</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D23" s="3">
+        <v>16.544211634579788</v>
+      </c>
+      <c r="E23" s="3">
+        <v>14.85149806640973</v>
+      </c>
+      <c r="F23" s="3">
+        <v>18.560970377510031</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" ref="H23:H25" si="5">ABS(D23-D$22)/D$22</f>
+        <v>9.1757434426062934E-2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>16.769877557025069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1372,35 +1098,23 @@
         <v>9</v>
       </c>
       <c r="D24" s="3">
-        <v>17.583367104320839</v>
+        <v>18.99832485474645</v>
       </c>
       <c r="E24" s="3">
-        <v>24.000476546860099</v>
+        <v>16.817306669796942</v>
       </c>
       <c r="F24" s="3">
-        <v>31.68575887600003</v>
-      </c>
-      <c r="H24" s="3">
-        <v>27.554017340836431</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <f t="shared" si="22"/>
-        <v>2.1757939048692831E-2</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" si="23"/>
-        <v>-0.54894243797480424</v>
-      </c>
-      <c r="L24" s="4">
-        <f t="shared" si="24"/>
-        <v>-0.73937910551952934</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+        <v>21.347333555121761</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="5"/>
+        <v>0.25370509395914831</v>
+      </c>
+      <c r="J24" s="3">
+        <v>18.916925918855661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1411,32 +1125,20 @@
         <v>10</v>
       </c>
       <c r="D25" s="3">
-        <v>17.678571450757001</v>
+        <v>15.80077728768882</v>
       </c>
       <c r="E25" s="3">
-        <v>15.859133472203119</v>
+        <v>13.3128983396963</v>
       </c>
       <c r="F25" s="3">
-        <v>26.96444420798586</v>
-      </c>
-      <c r="H25" s="3">
-        <v>22.139875821932751</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J25" s="4">
-        <f t="shared" si="22"/>
-        <v>1.646129162521115E-2</v>
-      </c>
-      <c r="K25" s="4">
-        <f t="shared" si="23"/>
-        <v>-2.351654629190536E-2</v>
-      </c>
-      <c r="L25" s="4">
-        <f t="shared" si="24"/>
-        <v>-0.48020412043350347</v>
+        <v>17.292920276467061</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="5"/>
+        <v>4.2697981298091964E-2</v>
+      </c>
+      <c r="J25" s="3">
+        <v>14.915449902386641</v>
       </c>
     </row>
   </sheetData>

--- a/fermentation_insights/TRY_results/c_coeff_baselines_percentiles.xlsx
+++ b/fermentation_insights/TRY_results/c_coeff_baselines_percentiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
   <si>
     <t>product</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>TAL</t>
+  </si>
+  <si>
+    <t>TAL_SA</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HP_neutral</t>
+  </si>
+  <si>
+    <t>HP_hexanol</t>
+  </si>
+  <si>
+    <t>HP_neutral_hexanol</t>
   </si>
   <si>
     <t>glucose</t>
@@ -404,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,19 +453,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>28.68575059107434</v>
       </c>
       <c r="E2">
-        <v>21.38739424193319</v>
+        <v>21.59433812192898</v>
       </c>
       <c r="F2">
-        <v>28.01935368101003</v>
+        <v>27.84994978799346</v>
       </c>
       <c r="G2">
-        <v>36.11140914207614</v>
+        <v>36.03988330354404</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,19 +476,19 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>28.25353971075309</v>
       </c>
       <c r="E3">
-        <v>27.30402513186069</v>
+        <v>23.16037940290216</v>
       </c>
       <c r="F3">
-        <v>36.68304759914073</v>
+        <v>29.24892546491194</v>
       </c>
       <c r="G3">
-        <v>46.07259149981301</v>
+        <v>37.16244839113233</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,19 +499,19 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>31.87542984315657</v>
       </c>
       <c r="E4">
-        <v>25.14952921072974</v>
+        <v>25.12229296984861</v>
       </c>
       <c r="F4">
-        <v>31.32436525065298</v>
+        <v>31.19211080424987</v>
       </c>
       <c r="G4">
-        <v>39.36154743335189</v>
+        <v>39.24298206415911</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -507,19 +522,479 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>30.16026409645902</v>
       </c>
       <c r="E5">
-        <v>23.40321346404851</v>
+        <v>23.58406655747638</v>
       </c>
       <c r="F5">
-        <v>29.89215293214679</v>
+        <v>29.92402858840394</v>
       </c>
       <c r="G5">
-        <v>38.00564960191368</v>
+        <v>38.12110916716613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>26.90624855160224</v>
+      </c>
+      <c r="E6">
+        <v>19.76734684230223</v>
+      </c>
+      <c r="F6">
+        <v>26.28732061138039</v>
+      </c>
+      <c r="G6">
+        <v>34.46369694924149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>27.08646182071448</v>
+      </c>
+      <c r="E7">
+        <v>22.50222629801112</v>
+      </c>
+      <c r="F7">
+        <v>28.97942425538309</v>
+      </c>
+      <c r="G7">
+        <v>36.78650376510797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>30.42628617385802</v>
+      </c>
+      <c r="E8">
+        <v>24.00823758872104</v>
+      </c>
+      <c r="F8">
+        <v>30.43413292169895</v>
+      </c>
+      <c r="G8">
+        <v>38.35665692759506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>28.2217292271143</v>
+      </c>
+      <c r="E9">
+        <v>21.90719670271791</v>
+      </c>
+      <c r="F9">
+        <v>28.52157648697758</v>
+      </c>
+      <c r="G9">
+        <v>36.6268713583863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>19.82536313020401</v>
+      </c>
+      <c r="E10">
+        <v>18.36520499325179</v>
+      </c>
+      <c r="F10">
+        <v>19.93263998160425</v>
+      </c>
+      <c r="G10">
+        <v>21.4740755315401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>20.74365083004889</v>
+      </c>
+      <c r="E11">
+        <v>18.84787512042719</v>
+      </c>
+      <c r="F11">
+        <v>20.20226472384194</v>
+      </c>
+      <c r="G11">
+        <v>21.62257350515008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>24.07759565827171</v>
+      </c>
+      <c r="E12">
+        <v>21.93912127017584</v>
+      </c>
+      <c r="F12">
+        <v>23.86861722693619</v>
+      </c>
+      <c r="G12">
+        <v>26.49350753628325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>20.357271082453</v>
+      </c>
+      <c r="E13">
+        <v>18.35776800397194</v>
+      </c>
+      <c r="F13">
+        <v>19.84143973159567</v>
+      </c>
+      <c r="G13">
+        <v>21.38605865693222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>20.81725406500806</v>
+      </c>
+      <c r="E14">
+        <v>19.16091621654835</v>
+      </c>
+      <c r="F14">
+        <v>20.73716996529901</v>
+      </c>
+      <c r="G14">
+        <v>22.379311976095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>21.603170878682</v>
+      </c>
+      <c r="E15">
+        <v>19.44815917079732</v>
+      </c>
+      <c r="F15">
+        <v>20.84922895203264</v>
+      </c>
+      <c r="G15">
+        <v>22.32610793798814</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>25.32174988263703</v>
+      </c>
+      <c r="E16">
+        <v>22.61434440906985</v>
+      </c>
+      <c r="F16">
+        <v>24.75712629864807</v>
+      </c>
+      <c r="G16">
+        <v>27.65625575276681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>21.32306804273598</v>
+      </c>
+      <c r="E17">
+        <v>19.07659207878416</v>
+      </c>
+      <c r="F17">
+        <v>20.5976910461313</v>
+      </c>
+      <c r="G17">
+        <v>22.21834270475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>15.04031652738937</v>
+      </c>
+      <c r="E18">
+        <v>13.56164591505694</v>
+      </c>
+      <c r="F18">
+        <v>15.10446687540033</v>
+      </c>
+      <c r="G18">
+        <v>16.75987727503392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>16.14631290493657</v>
+      </c>
+      <c r="E19">
+        <v>14.14879341428865</v>
+      </c>
+      <c r="F19">
+        <v>15.61646963037206</v>
+      </c>
+      <c r="G19">
+        <v>17.16152603860612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>17.59755913946257</v>
+      </c>
+      <c r="E20">
+        <v>15.67336703622519</v>
+      </c>
+      <c r="F20">
+        <v>17.35123152059389</v>
+      </c>
+      <c r="G20">
+        <v>19.49869832892109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>15.71841584967819</v>
+      </c>
+      <c r="E21">
+        <v>13.8667674694797</v>
+      </c>
+      <c r="F21">
+        <v>15.41943618405445</v>
+      </c>
+      <c r="G21">
+        <v>17.03833551041844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>15.28442974423875</v>
+      </c>
+      <c r="E22">
+        <v>13.68714580617174</v>
+      </c>
+      <c r="F22">
+        <v>15.19033118556976</v>
+      </c>
+      <c r="G22">
+        <v>16.80026336482406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>16.32096464651541</v>
+      </c>
+      <c r="E23">
+        <v>14.24136849998254</v>
+      </c>
+      <c r="F23">
+        <v>15.63435755984346</v>
+      </c>
+      <c r="G23">
+        <v>17.151778682305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>17.93267703480512</v>
+      </c>
+      <c r="E24">
+        <v>15.93141042267385</v>
+      </c>
+      <c r="F24">
+        <v>17.57816809761282</v>
+      </c>
+      <c r="G24">
+        <v>19.68524288766037</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>15.85640697196081</v>
+      </c>
+      <c r="E25">
+        <v>13.92841034143018</v>
+      </c>
+      <c r="F25">
+        <v>15.42507835584957</v>
+      </c>
+      <c r="G25">
+        <v>16.99630921525006</v>
       </c>
     </row>
   </sheetData>
